--- a/data/outputs/OR_altmetric/52.xlsx
+++ b/data/outputs/OR_altmetric/52.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE139"/>
+  <dimension ref="A1:CF139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1037,6 +1042,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1291,6 +1299,9 @@
       </c>
       <c r="CE3" t="n">
         <v>0</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="4">
@@ -1537,6 +1548,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1784,6 +1798,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2042,6 +2059,9 @@
       </c>
       <c r="CE6" t="n">
         <v>0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="7">
@@ -2288,6 +2308,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2549,6 +2572,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2798,6 +2824,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3055,6 +3084,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3316,6 +3348,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3567,6 +3602,9 @@
         <v>0</v>
       </c>
       <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,6 +3852,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4059,6 +4100,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4318,6 +4362,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4579,6 +4626,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4828,6 +4878,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5089,6 +5142,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5347,6 +5403,9 @@
       </c>
       <c r="CE19" t="n">
         <v>0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="20">
@@ -5593,6 +5652,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5846,6 +5908,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6097,6 +6162,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6350,6 +6418,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6601,6 +6672,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6858,6 +6932,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7121,6 +7198,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7372,6 +7452,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7627,6 +7710,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>4.35</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7888,6 +7974,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8143,6 +8232,9 @@
         <v>0</v>
       </c>
       <c r="CE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8390,6 +8482,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8643,6 +8738,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8894,6 +8992,9 @@
         <v>0</v>
       </c>
       <c r="CE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9125,6 +9226,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9386,6 +9490,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9641,6 +9748,9 @@
         <v>0</v>
       </c>
       <c r="CE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9890,6 +10000,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10143,6 +10256,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10394,6 +10510,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10643,6 +10762,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10904,6 +11026,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11151,6 +11276,9 @@
         <v>0</v>
       </c>
       <c r="CE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11398,6 +11526,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11657,6 +11788,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11910,6 +12044,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12165,6 +12302,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>31.3</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12419,6 +12559,9 @@
       </c>
       <c r="CE47" t="n">
         <v>0</v>
+      </c>
+      <c r="CF47" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -12665,6 +12808,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12922,6 +13068,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13169,6 +13318,9 @@
         <v>0</v>
       </c>
       <c r="CE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13416,6 +13568,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13665,6 +13820,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13918,6 +14076,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14167,6 +14328,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14414,6 +14578,9 @@
         <v>0</v>
       </c>
       <c r="CE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14661,6 +14828,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14914,6 +15084,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -15165,6 +15338,9 @@
         <v>0</v>
       </c>
       <c r="CE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15416,6 +15592,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15673,6 +15852,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15926,6 +16108,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -16179,6 +16364,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16430,6 +16618,9 @@
         <v>0</v>
       </c>
       <c r="CE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16677,6 +16868,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16934,6 +17128,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -17181,6 +17378,9 @@
         <v>0</v>
       </c>
       <c r="CE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17428,6 +17628,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17673,6 +17876,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17928,6 +18134,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -18179,6 +18388,9 @@
         <v>0</v>
       </c>
       <c r="CE70" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18426,6 +18638,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18687,6 +18902,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18940,6 +19158,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -19195,6 +19416,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19454,6 +19678,9 @@
         <v>0</v>
       </c>
       <c r="CE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19701,6 +19928,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19942,6 +20172,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -20189,6 +20422,9 @@
         <v>0</v>
       </c>
       <c r="CE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20436,6 +20672,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20683,6 +20922,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20937,6 +21179,9 @@
       </c>
       <c r="CE81" t="n">
         <v>0</v>
+      </c>
+      <c r="CF81" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="82">
@@ -21183,6 +21428,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21436,6 +21684,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21693,6 +21944,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21948,6 +22202,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>5.096</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -22209,6 +22466,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -22462,6 +22722,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22721,6 +22984,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22974,6 +23240,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -23233,6 +23502,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -23476,6 +23748,9 @@
         <v>0</v>
       </c>
       <c r="CE91" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23723,6 +23998,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23970,6 +24248,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -24215,6 +24496,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -24474,6 +24758,9 @@
         <v>0</v>
       </c>
       <c r="CE95" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24721,6 +25008,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -24974,6 +25264,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -25225,6 +25518,9 @@
         <v>0</v>
       </c>
       <c r="CE98" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25472,6 +25768,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -25727,6 +26026,9 @@
       <c r="CE100" t="n">
         <v>0</v>
       </c>
+      <c r="CF100" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -25988,6 +26290,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -26241,6 +26546,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -26496,6 +26804,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>4.45</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -26747,6 +27058,9 @@
         <v>0</v>
       </c>
       <c r="CE104" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26992,6 +27306,9 @@
         <v>0</v>
       </c>
       <c r="CE105" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27231,6 +27548,9 @@
       <c r="CE106" t="n">
         <v>0</v>
       </c>
+      <c r="CF106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -27485,6 +27805,9 @@
       </c>
       <c r="CE107" t="n">
         <v>0</v>
+      </c>
+      <c r="CF107" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="108">
@@ -27731,6 +28054,9 @@
       <c r="CE108" t="n">
         <v>0</v>
       </c>
+      <c r="CF108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -27976,6 +28302,9 @@
       <c r="CE109" t="n">
         <v>0</v>
       </c>
+      <c r="CF109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -28221,6 +28550,9 @@
       <c r="CE110" t="n">
         <v>0</v>
       </c>
+      <c r="CF110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -28476,6 +28808,9 @@
         <v>0</v>
       </c>
       <c r="CE111" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28723,6 +29058,9 @@
       <c r="CE112" t="n">
         <v>0</v>
       </c>
+      <c r="CF112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -28974,6 +29312,9 @@
         <v>0</v>
       </c>
       <c r="CE113" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29221,6 +29562,9 @@
       <c r="CE114" t="n">
         <v>0</v>
       </c>
+      <c r="CF114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -29468,6 +29812,9 @@
         <v>0</v>
       </c>
       <c r="CE115" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29711,6 +30058,9 @@
       <c r="CE116" t="n">
         <v>0</v>
       </c>
+      <c r="CF116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -29952,6 +30302,9 @@
       <c r="CE117" t="n">
         <v>0</v>
       </c>
+      <c r="CF117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -30197,6 +30550,9 @@
       <c r="CE118" t="n">
         <v>0</v>
       </c>
+      <c r="CF118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -30444,6 +30800,9 @@
         <v>0</v>
       </c>
       <c r="CE119" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30677,6 +31036,9 @@
         <v>0</v>
       </c>
       <c r="CE120" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30900,6 +31262,9 @@
       <c r="CE121" t="n">
         <v>0</v>
       </c>
+      <c r="CF121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -31151,6 +31516,9 @@
         <v>0</v>
       </c>
       <c r="CE122" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31374,6 +31742,9 @@
       <c r="CE123" t="n">
         <v>0</v>
       </c>
+      <c r="CF123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -31627,6 +31998,9 @@
       <c r="CE124" t="n">
         <v>0</v>
       </c>
+      <c r="CF124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -31874,6 +32248,9 @@
         <v>0</v>
       </c>
       <c r="CE125" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32095,6 +32472,9 @@
         <v>0</v>
       </c>
       <c r="CE126" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32314,6 +32694,9 @@
       <c r="CE127" t="n">
         <v>0</v>
       </c>
+      <c r="CF127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -32531,6 +32914,9 @@
       <c r="CE128" t="n">
         <v>0</v>
       </c>
+      <c r="CF128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -32748,6 +33134,9 @@
       <c r="CE129" t="n">
         <v>0</v>
       </c>
+      <c r="CF129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -32965,6 +33354,9 @@
       <c r="CE130" t="n">
         <v>0</v>
       </c>
+      <c r="CF130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -33182,6 +33574,9 @@
       <c r="CE131" t="n">
         <v>0</v>
       </c>
+      <c r="CF131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -33399,6 +33794,9 @@
       <c r="CE132" t="n">
         <v>0</v>
       </c>
+      <c r="CF132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -33616,6 +34014,9 @@
       <c r="CE133" t="n">
         <v>0</v>
       </c>
+      <c r="CF133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -33833,6 +34234,9 @@
       <c r="CE134" t="n">
         <v>0</v>
       </c>
+      <c r="CF134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -34050,6 +34454,9 @@
       <c r="CE135" t="n">
         <v>0</v>
       </c>
+      <c r="CF135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -34267,6 +34674,9 @@
       <c r="CE136" t="n">
         <v>0</v>
       </c>
+      <c r="CF136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -34500,6 +34910,9 @@
       <c r="CE137" t="n">
         <v>0</v>
       </c>
+      <c r="CF137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -34727,6 +35140,9 @@
         <v>0</v>
       </c>
       <c r="CE138" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34944,6 +35360,9 @@
       <c r="CE139" t="n">
         <v>0</v>
       </c>
+      <c r="CF139" t="n">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
